--- a/python_luiz_otavio/modulo_python/workbook.xlsx
+++ b/python_luiz_otavio/modulo_python/workbook.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>4.3</v>
